--- a/TABOUT/describe_initial_data.xlsx
+++ b/TABOUT/describe_initial_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>dry_weight</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Unnamed: 14</t>
   </si>
   <si>
+    <t>RQD.1</t>
+  </si>
+  <si>
     <t>pred_class_i</t>
   </si>
   <si>
@@ -56,6 +59,51 @@
   </si>
   <si>
     <t>ID-num</t>
+  </si>
+  <si>
+    <t>ID-BH-A</t>
+  </si>
+  <si>
+    <t>Unnamed: 33</t>
+  </si>
+  <si>
+    <t>z-sup</t>
+  </si>
+  <si>
+    <t>z-inf</t>
+  </si>
+  <si>
+    <t>Unnamed: 38</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>dy_unit</t>
+  </si>
+  <si>
+    <t>gammad</t>
+  </si>
+  <si>
+    <t>ucs</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>IS50</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>IP</t>
   </si>
   <si>
     <t>count</t>
@@ -437,13 +485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:31">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,16 +534,64 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>96</v>
+        <v>223</v>
       </c>
       <c r="C2">
-        <v>95</v>
+        <v>231</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -504,25 +600,25 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="G2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="H2">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="I2">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="J2">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="K2">
         <v>2</v>
       </c>
       <c r="L2">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="M2">
         <v>96</v>
@@ -533,101 +629,233 @@
       <c r="O2">
         <v>96</v>
       </c>
+      <c r="P2">
+        <v>234</v>
+      </c>
+      <c r="Q2">
+        <v>138</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>138</v>
+      </c>
+      <c r="T2">
+        <v>138</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>136</v>
+      </c>
+      <c r="W2">
+        <v>14</v>
+      </c>
+      <c r="X2">
+        <v>127</v>
+      </c>
+      <c r="Y2">
+        <v>109</v>
+      </c>
+      <c r="Z2">
+        <v>36</v>
+      </c>
+      <c r="AA2">
+        <v>30</v>
+      </c>
+      <c r="AB2">
+        <v>22</v>
+      </c>
+      <c r="AC2">
+        <v>94</v>
+      </c>
+      <c r="AD2">
+        <v>9</v>
+      </c>
+      <c r="AE2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:31">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B3">
-        <v>2227.5625</v>
+        <v>2335.591928251121</v>
       </c>
       <c r="C3">
-        <v>5.81715789473684</v>
+        <v>5.105324675324672</v>
       </c>
       <c r="F3">
-        <v>37.89968421052631</v>
+        <v>42.9421274509804</v>
       </c>
       <c r="G3">
-        <v>32.09486486486486</v>
+        <v>31.77290909090907</v>
       </c>
       <c r="H3">
-        <v>0.2049295774647887</v>
+        <v>0.2070297029702971</v>
       </c>
       <c r="I3">
-        <v>1.625</v>
+        <v>1.811965811965812</v>
       </c>
       <c r="J3">
-        <v>15.97352941176471</v>
+        <v>263.817441860465</v>
       </c>
       <c r="K3">
         <v>29</v>
       </c>
       <c r="L3">
+        <v>70.33333333333333</v>
+      </c>
+      <c r="M3">
         <v>1.666666666666667</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.8020833333333334</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>44.66666666666666</v>
       </c>
-      <c r="O3">
-        <v>48.5</v>
+      <c r="P3">
+        <v>117.5</v>
+      </c>
+      <c r="Q3">
+        <v>70.18115942028986</v>
+      </c>
+      <c r="S3">
+        <v>324.7456521739132</v>
+      </c>
+      <c r="T3">
+        <v>325.0152173913044</v>
+      </c>
+      <c r="V3">
+        <v>4.679338235294118</v>
+      </c>
+      <c r="W3">
+        <v>2389.428571428572</v>
+      </c>
+      <c r="X3">
+        <v>23.71811023622047</v>
+      </c>
+      <c r="Y3">
+        <v>47.33691743119267</v>
+      </c>
+      <c r="Z3">
+        <v>31.11111111111111</v>
+      </c>
+      <c r="AA3">
+        <v>0.212</v>
+      </c>
+      <c r="AB3">
+        <v>1.604090909090909</v>
+      </c>
+      <c r="AC3">
+        <v>6.39</v>
+      </c>
+      <c r="AD3">
+        <v>52</v>
+      </c>
+      <c r="AE3">
+        <v>23.33333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:31">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B4">
-        <v>444.174214576597</v>
+        <v>435.3215642015426</v>
       </c>
       <c r="C4">
-        <v>4.621237207271217</v>
+        <v>4.887554625803643</v>
       </c>
       <c r="F4">
-        <v>42.04291747100439</v>
+        <v>43.52814560337259</v>
       </c>
       <c r="G4">
-        <v>28.8586732169811</v>
+        <v>28.39426122227222</v>
       </c>
       <c r="H4">
-        <v>0.08773129820140944</v>
+        <v>0.08173792943860818</v>
       </c>
       <c r="I4">
-        <v>0.8366600265340756</v>
+        <v>1.175074640541327</v>
       </c>
       <c r="J4">
-        <v>12.43181546076935</v>
+        <v>187.8258678239688</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
+        <v>19.26529302013118</v>
+      </c>
+      <c r="M4">
         <v>1.295064856467097</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1.09178551649813</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>48.07311682638762</v>
       </c>
-      <c r="O4">
-        <v>27.85677655436824</v>
+      <c r="P4">
+        <v>67.69416518430521</v>
+      </c>
+      <c r="Q4">
+        <v>40.3933642572415</v>
+      </c>
+      <c r="S4">
+        <v>158.1414409505678</v>
+      </c>
+      <c r="T4">
+        <v>158.061899499247</v>
+      </c>
+      <c r="V4">
+        <v>5.021680285736723</v>
+      </c>
+      <c r="W4">
+        <v>477.807768601834</v>
+      </c>
+      <c r="X4">
+        <v>4.039004618122125</v>
+      </c>
+      <c r="Y4">
+        <v>44.50844729439497</v>
+      </c>
+      <c r="Z4">
+        <v>27.80544425393578</v>
+      </c>
+      <c r="AA4">
+        <v>0.06650900898270902</v>
+      </c>
+      <c r="AB4">
+        <v>2.412575504055896</v>
+      </c>
+      <c r="AC4">
+        <v>5.682855181222965</v>
+      </c>
+      <c r="AD4">
+        <v>11.29158979063621</v>
+      </c>
+      <c r="AE4">
+        <v>11.36881700090207</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:31">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B5">
-        <v>1586</v>
+        <v>1396</v>
       </c>
       <c r="C5">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="F5">
-        <v>3.38</v>
+        <v>0.09</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -645,7 +873,7 @@
         <v>29</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -654,62 +882,146 @@
         <v>0</v>
       </c>
       <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>1</v>
       </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>8</v>
+      </c>
+      <c r="T5">
+        <v>10</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>1778</v>
+      </c>
+      <c r="X5">
+        <v>13.7</v>
+      </c>
+      <c r="Y5">
+        <v>0.09</v>
+      </c>
+      <c r="Z5">
+        <v>1.1</v>
+      </c>
+      <c r="AA5">
+        <v>0.1</v>
+      </c>
+      <c r="AB5">
+        <v>0.04</v>
+      </c>
+      <c r="AC5">
+        <v>0.38</v>
+      </c>
+      <c r="AD5">
+        <v>39</v>
+      </c>
+      <c r="AE5">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:31">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>1827.25</v>
+        <v>1957</v>
       </c>
       <c r="C6">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>9.865</v>
+        <v>10.3975</v>
       </c>
       <c r="G6">
         <v>6.624999999999999</v>
       </c>
       <c r="H6">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>6.525</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="K6">
         <v>29</v>
       </c>
       <c r="L6">
+        <v>55</v>
+      </c>
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>5</v>
       </c>
-      <c r="O6">
-        <v>24.75</v>
+      <c r="P6">
+        <v>59.25</v>
+      </c>
+      <c r="Q6">
+        <v>35.25</v>
+      </c>
+      <c r="S6">
+        <v>192.775</v>
+      </c>
+      <c r="T6">
+        <v>193.125</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1963.25</v>
+      </c>
+      <c r="X6">
+        <v>20.15</v>
+      </c>
+      <c r="Y6">
+        <v>11.05</v>
+      </c>
+      <c r="Z6">
+        <v>7.475</v>
+      </c>
+      <c r="AA6">
+        <v>0.185</v>
+      </c>
+      <c r="AB6">
+        <v>0.1675</v>
+      </c>
+      <c r="AC6">
+        <v>1.62</v>
+      </c>
+      <c r="AD6">
+        <v>42</v>
+      </c>
+      <c r="AE6">
+        <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:31">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B7">
-        <v>2047</v>
+        <v>2232</v>
       </c>
       <c r="C7">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="F7">
-        <v>15.9</v>
+        <v>21.4</v>
       </c>
       <c r="G7">
         <v>19.8</v>
@@ -721,77 +1033,161 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>12.225</v>
+        <v>271.3</v>
       </c>
       <c r="K7">
         <v>29</v>
       </c>
       <c r="L7">
+        <v>77</v>
+      </c>
+      <c r="M7">
         <v>2</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>6</v>
       </c>
-      <c r="O7">
-        <v>48.5</v>
+      <c r="P7">
+        <v>117.5</v>
+      </c>
+      <c r="Q7">
+        <v>70.5</v>
+      </c>
+      <c r="S7">
+        <v>354.55</v>
+      </c>
+      <c r="T7">
+        <v>354.8</v>
+      </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
+      <c r="W7">
+        <v>2432.5</v>
+      </c>
+      <c r="X7">
+        <v>24.2</v>
+      </c>
+      <c r="Y7">
+        <v>34.2</v>
+      </c>
+      <c r="Z7">
+        <v>20.55</v>
+      </c>
+      <c r="AA7">
+        <v>0.21</v>
+      </c>
+      <c r="AB7">
+        <v>0.385</v>
+      </c>
+      <c r="AC7">
+        <v>4.115</v>
+      </c>
+      <c r="AD7">
+        <v>50</v>
+      </c>
+      <c r="AE7">
+        <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:31">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B8">
-        <v>2744.25</v>
+        <v>2787</v>
       </c>
       <c r="C8">
-        <v>9.949999999999999</v>
+        <v>6.395</v>
       </c>
       <c r="F8">
-        <v>61.65</v>
+        <v>63.175</v>
       </c>
       <c r="G8">
-        <v>55.74999999999999</v>
+        <v>57.15000000000001</v>
       </c>
       <c r="H8">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <v>18.55</v>
+        <v>434.85</v>
       </c>
       <c r="K8">
         <v>29</v>
       </c>
       <c r="L8">
+        <v>85</v>
+      </c>
+      <c r="M8">
         <v>3</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>100</v>
       </c>
-      <c r="O8">
-        <v>72.25</v>
+      <c r="P8">
+        <v>175.75</v>
+      </c>
+      <c r="Q8">
+        <v>104.75</v>
+      </c>
+      <c r="S8">
+        <v>459.6250000000001</v>
+      </c>
+      <c r="T8">
+        <v>459.825</v>
+      </c>
+      <c r="V8">
+        <v>6</v>
+      </c>
+      <c r="W8">
+        <v>2835</v>
+      </c>
+      <c r="X8">
+        <v>27.65</v>
+      </c>
+      <c r="Y8">
+        <v>65.7</v>
+      </c>
+      <c r="Z8">
+        <v>58.475</v>
+      </c>
+      <c r="AA8">
+        <v>0.2375</v>
+      </c>
+      <c r="AB8">
+        <v>1.79</v>
+      </c>
+      <c r="AC8">
+        <v>10.9225</v>
+      </c>
+      <c r="AD8">
+        <v>60</v>
+      </c>
+      <c r="AE8">
+        <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:31">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B9">
-        <v>2917</v>
+        <v>3068</v>
       </c>
       <c r="C9">
-        <v>19.6</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>158.9</v>
+        <v>195.9</v>
       </c>
       <c r="G9">
         <v>97.09999999999999</v>
@@ -800,25 +1196,67 @@
         <v>0.41</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J9">
-        <v>47.55</v>
+        <v>552</v>
       </c>
       <c r="K9">
         <v>29</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="M9">
         <v>4</v>
       </c>
       <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
         <v>100</v>
       </c>
-      <c r="O9">
-        <v>96</v>
+      <c r="P9">
+        <v>234</v>
+      </c>
+      <c r="Q9">
+        <v>140</v>
+      </c>
+      <c r="S9">
+        <v>551.9</v>
+      </c>
+      <c r="T9">
+        <v>552.1</v>
+      </c>
+      <c r="V9">
+        <v>34</v>
+      </c>
+      <c r="W9">
+        <v>2927</v>
+      </c>
+      <c r="X9">
+        <v>30.1</v>
+      </c>
+      <c r="Y9">
+        <v>195.9</v>
+      </c>
+      <c r="Z9">
+        <v>86.3</v>
+      </c>
+      <c r="AA9">
+        <v>0.41</v>
+      </c>
+      <c r="AB9">
+        <v>7.57</v>
+      </c>
+      <c r="AC9">
+        <v>20.4</v>
+      </c>
+      <c r="AD9">
+        <v>71</v>
+      </c>
+      <c r="AE9">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
